--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E3B3D8-13D2-DC44-921D-D36CC00E46FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048780BF-7CAD-FB45-B258-90FFB174E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="9" activeTab="19" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1740" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1885,15 +1885,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
-  </si>
-  <si>
     <t>Exclusion</t>
   </si>
   <si>
@@ -1924,9 +1915,6 @@
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia over the age of [min_age]</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
-  </si>
-  <si>
     <t>Berber_Dict</t>
   </si>
   <si>
@@ -2327,6 +2315,18 @@
   </si>
   <si>
     <t>In Person, TELEPHONE CALL</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="title_page" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="inclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2550,10 +2550,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2580,9 +2580,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2620,7 +2620,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2726,7 +2726,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2868,7 +2868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B7" t="s">
         <v>579</v>
@@ -3660,24 +3660,24 @@
         <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>598</v>
@@ -3688,16 +3688,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>598</v>
@@ -3708,16 +3708,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>752</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
@@ -3838,7 +3838,7 @@
         <v>460</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>44</v>
@@ -3849,13 +3849,13 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -3866,10 +3866,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>130</v>
@@ -3929,49 +3929,49 @@
         <v>44</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="P1" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>675</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3979,58 +3979,58 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="G2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I2" t="s">
         <v>680</v>
       </c>
-      <c r="C2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D2" t="s">
-        <v>682</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>683</v>
+      </c>
+      <c r="K2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L2" t="s">
         <v>685</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="G2" t="s">
-        <v>683</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>691</v>
+      </c>
+      <c r="N2" t="s">
         <v>686</v>
       </c>
-      <c r="I2" t="s">
-        <v>684</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
+        <v>692</v>
+      </c>
+      <c r="P2" t="s">
         <v>687</v>
-      </c>
-      <c r="K2" t="s">
-        <v>688</v>
-      </c>
-      <c r="L2" t="s">
-        <v>689</v>
-      </c>
-      <c r="M2" t="s">
-        <v>695</v>
-      </c>
-      <c r="N2" t="s">
-        <v>690</v>
-      </c>
-      <c r="O2" t="s">
-        <v>696</v>
-      </c>
-      <c r="P2" t="s">
-        <v>691</v>
       </c>
       <c r="Q2" t="s">
         <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4038,58 +4038,58 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="G3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I3" t="s">
+        <v>680</v>
+      </c>
+      <c r="J3" t="s">
         <v>698</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>699</v>
       </c>
-      <c r="D3" t="s">
-        <v>682</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>700</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="G3" t="s">
-        <v>683</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>691</v>
+      </c>
+      <c r="N3" t="s">
+        <v>686</v>
+      </c>
+      <c r="O3" t="s">
+        <v>692</v>
+      </c>
+      <c r="P3" t="s">
         <v>701</v>
-      </c>
-      <c r="I3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J3" t="s">
-        <v>702</v>
-      </c>
-      <c r="K3" t="s">
-        <v>703</v>
-      </c>
-      <c r="L3" t="s">
-        <v>704</v>
-      </c>
-      <c r="M3" t="s">
-        <v>695</v>
-      </c>
-      <c r="N3" t="s">
-        <v>690</v>
-      </c>
-      <c r="O3" t="s">
-        <v>696</v>
-      </c>
-      <c r="P3" t="s">
-        <v>705</v>
       </c>
       <c r="Q3" t="s">
         <v>130</v>
       </c>
       <c r="R3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>389</v>
@@ -4131,24 +4131,24 @@
         <v>460</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
@@ -4168,13 +4168,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>130</v>
@@ -4182,13 +4182,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>130</v>
@@ -4240,7 +4240,7 @@
         <v>51</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>514</v>
@@ -4261,7 +4261,7 @@
         <v>53</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4303,13 +4303,13 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>71</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4974,7 +4974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5134,7 +5134,7 @@
         <v>139</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>578</v>
@@ -5160,7 +5160,7 @@
         <v>142</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -5298,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5333,7 +5333,7 @@
         <v>606</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>608</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
         <v>458</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>621</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>609</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5539,7 +5539,7 @@
         <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>610</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6603,94 +6603,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>633</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -6792,53 +6792,53 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E4" t="s">
         <v>655</v>
-      </c>
-      <c r="D4" t="s">
-        <v>654</v>
-      </c>
-      <c r="E4" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D5" t="s">
         <v>650</v>
       </c>
-      <c r="B5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>656</v>
-      </c>
-      <c r="D5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E5" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -6887,34 +6887,34 @@
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -6951,10 +6951,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -6973,10 +6973,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -7067,11 +7067,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7080,6 +7075,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7116,30 +7116,30 @@
         <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>493</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
@@ -7154,33 +7154,33 @@
         <v>604</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
@@ -7195,13 +7195,13 @@
         <v>605</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -7470,39 +7470,39 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>506</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>510</v>
       </c>
       <c r="C5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -7571,7 +7571,7 @@
         <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7585,18 +7585,18 @@
         <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D4" t="s">
         <v>501</v>
@@ -7608,21 +7608,21 @@
         <v>503</v>
       </c>
       <c r="G4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E5" t="s">
         <v>548</v>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048780BF-7CAD-FB45-B258-90FFB174E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53963649-6BAE-1041-9592-EEBFCE8CEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="755">
   <si>
     <t>Screening</t>
   </si>
@@ -2104,12 +2104,6 @@
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t>Admin 1</t>
   </si>
   <si>
@@ -2149,12 +2143,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2327,6 +2315,15 @@
   </si>
   <si>
     <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2550,10 +2547,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3660,24 +3657,24 @@
         <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>598</v>
@@ -3688,16 +3685,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>598</v>
@@ -3708,16 +3705,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
@@ -3838,7 +3835,7 @@
         <v>460</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>44</v>
@@ -3855,7 +3852,7 @@
         <v>659</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -3887,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3935,7 +3932,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>664</v>
@@ -3988,49 +3985,49 @@
         <v>678</v>
       </c>
       <c r="E2" t="s">
-        <v>681</v>
+        <v>752</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G2" t="s">
         <v>679</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>753</v>
       </c>
       <c r="I2" t="s">
         <v>680</v>
       </c>
       <c r="J2" t="s">
+        <v>681</v>
+      </c>
+      <c r="K2" t="s">
+        <v>682</v>
+      </c>
+      <c r="L2" t="s">
         <v>683</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>689</v>
+      </c>
+      <c r="N2" t="s">
         <v>684</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>690</v>
+      </c>
+      <c r="P2" t="s">
         <v>685</v>
-      </c>
-      <c r="M2" t="s">
-        <v>691</v>
-      </c>
-      <c r="N2" t="s">
-        <v>686</v>
-      </c>
-      <c r="O2" t="s">
-        <v>692</v>
-      </c>
-      <c r="P2" t="s">
-        <v>687</v>
       </c>
       <c r="Q2" t="s">
         <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4038,58 +4035,58 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D3" t="s">
         <v>678</v>
       </c>
       <c r="E3" t="s">
-        <v>696</v>
+        <v>25</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G3" t="s">
         <v>679</v>
       </c>
       <c r="H3" t="s">
-        <v>697</v>
+        <v>754</v>
       </c>
       <c r="I3" t="s">
         <v>680</v>
       </c>
       <c r="J3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="K3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="M3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="Q3" t="s">
         <v>130</v>
       </c>
       <c r="R3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4116,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>389</v>
@@ -4131,24 +4128,24 @@
         <v>460</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
@@ -4168,13 +4165,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>130</v>
@@ -4182,13 +4179,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>130</v>
@@ -4902,7 +4899,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5134,7 +5131,7 @@
         <v>139</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>578</v>
@@ -5298,7 +5295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
@@ -5333,7 +5330,7 @@
         <v>606</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5409,7 +5406,7 @@
         <v>458</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5527,7 +5524,7 @@
         <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5539,7 +5536,7 @@
         <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6887,34 +6884,34 @@
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -6951,10 +6948,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6962,10 +6959,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -6973,10 +6970,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -7067,6 +7064,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7075,11 +7077,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7116,30 +7113,30 @@
         <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>493</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>113</v>
@@ -7154,33 +7151,33 @@
         <v>604</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
@@ -7195,13 +7192,13 @@
         <v>605</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -7571,7 +7568,7 @@
         <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7585,7 +7582,7 @@
         <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7608,7 +7605,7 @@
         <v>503</v>
       </c>
       <c r="G4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53963649-6BAE-1041-9592-EEBFCE8CEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C49007-4F49-D641-8FC8-607979EFD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -226,18 +226,12 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
     <t>Primary Endpoint</t>
   </si>
   <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
   </si>
   <si>
@@ -2324,6 +2318,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2547,10 +2547,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2577,9 +2577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2617,7 +2617,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2723,7 +2723,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2865,7 +2865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2892,10 +2892,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,63 +2932,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
@@ -2996,79 +2996,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>464</v>
-      </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F17" s="23">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>466</v>
+      </c>
+      <c r="E18" t="s">
         <v>468</v>
-      </c>
-      <c r="C18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D18" t="s">
-        <v>468</v>
-      </c>
-      <c r="E18" t="s">
-        <v>470</v>
       </c>
       <c r="F18" s="23">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3099,42 +3099,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>43</v>
@@ -3143,36 +3143,36 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3181,16 +3181,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3199,65 +3199,65 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3266,7 +3266,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3291,26 +3291,26 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3321,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3349,10 +3349,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3377,10 +3377,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3429,196 +3429,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" t="s">
         <v>562</v>
-      </c>
-      <c r="E2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" t="s">
         <v>565</v>
       </c>
-      <c r="B3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C3" t="s">
-        <v>567</v>
-      </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" t="s">
         <v>569</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" t="s">
         <v>570</v>
-      </c>
-      <c r="C4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" t="s">
         <v>573</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" t="s">
         <v>574</v>
       </c>
-      <c r="C5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="E5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F5" t="s">
-        <v>540</v>
-      </c>
-      <c r="G5" t="s">
-        <v>576</v>
-      </c>
-      <c r="H5" t="s">
-        <v>564</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="E6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" t="s">
-        <v>589</v>
-      </c>
-      <c r="H6" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3645,80 +3645,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -3745,13 +3745,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3767,35 +3767,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" t="s">
         <v>594</v>
       </c>
-      <c r="B5" t="s">
-        <v>596</v>
-      </c>
       <c r="C5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3826,16 +3826,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>44</v>
@@ -3843,16 +3843,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>45</v>
@@ -3860,16 +3860,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>46</v>
@@ -3884,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -3914,179 +3914,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="O1" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>673</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" t="s">
         <v>676</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" t="s">
         <v>677</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I2" t="s">
         <v>678</v>
       </c>
-      <c r="E2" t="s">
-        <v>752</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>691</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>679</v>
       </c>
-      <c r="H2" t="s">
-        <v>753</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>680</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>681</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>687</v>
+      </c>
+      <c r="N2" t="s">
         <v>682</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>688</v>
+      </c>
+      <c r="P2" t="s">
         <v>683</v>
       </c>
-      <c r="M2" t="s">
-        <v>689</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
         <v>684</v>
       </c>
-      <c r="O2" t="s">
-        <v>690</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" s="32" t="s">
         <v>685</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>686</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J3" t="s">
+        <v>692</v>
+      </c>
+      <c r="K3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L3" t="s">
         <v>694</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>687</v>
+      </c>
+      <c r="N3" t="s">
+        <v>682</v>
+      </c>
+      <c r="O3" t="s">
+        <v>688</v>
+      </c>
+      <c r="P3" t="s">
         <v>695</v>
       </c>
-      <c r="L3" t="s">
-        <v>696</v>
-      </c>
-      <c r="M3" t="s">
-        <v>689</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" t="s">
         <v>684</v>
       </c>
-      <c r="O3" t="s">
-        <v>690</v>
-      </c>
-      <c r="P3" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" t="s">
-        <v>686</v>
-      </c>
       <c r="S3" s="32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -4116,39 +4116,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4160,35 +4160,35 @@
         <v>49</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" t="s">
         <v>702</v>
       </c>
-      <c r="B4" t="s">
-        <v>704</v>
-      </c>
       <c r="G4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4200,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4222,105 +4222,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>53</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>55</v>
+      <c r="E2" s="9" t="s">
+        <v>753</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
+        <v>615</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>754</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4331,18 +4331,18 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4660,54 +4660,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,33 +4731,33 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4785,53 +4785,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" t="s">
         <v>534</v>
       </c>
-      <c r="D3" t="s">
-        <v>536</v>
-      </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4865,22 +4865,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>477</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4889,17 +4889,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>481</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4908,17 +4908,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4927,19 +4927,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>485</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4948,17 +4948,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4989,175 +4989,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -5185,104 +5185,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5309,28 +5309,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5339,1209 +5339,1209 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -6565,18 +6565,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6600,94 +6600,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -6758,13 +6758,13 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6778,64 +6778,64 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D4" t="s">
         <v>648</v>
       </c>
-      <c r="C4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D4" t="s">
-        <v>650</v>
-      </c>
       <c r="E4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -6860,10 +6860,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -6871,10 +6871,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6884,41 +6884,41 @@
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -6929,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -6940,7 +6940,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>705</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>707</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -6970,10 +6970,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -7021,16 +7021,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -7038,16 +7038,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7064,11 +7064,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7077,6 +7072,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7104,42 +7104,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>715</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>34</v>
@@ -7148,39 +7148,39 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>723</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -7189,16 +7189,16 @@
         <v>234567891</v>
       </c>
       <c r="F4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -7227,22 +7227,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7250,19 +7250,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7276,13 +7276,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7311,13 +7311,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>42</v>
@@ -7328,13 +7328,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7342,13 +7342,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7356,13 +7356,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7370,13 +7370,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7404,102 +7404,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
         <v>506</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>507</v>
       </c>
-      <c r="D2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F2" t="s">
-        <v>509</v>
-      </c>
       <c r="G2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" t="s">
         <v>510</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>511</v>
       </c>
-      <c r="D3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>513</v>
-      </c>
       <c r="G3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D4" t="s">
         <v>608</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>609</v>
-      </c>
-      <c r="D4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F5" t="s">
         <v>622</v>
       </c>
-      <c r="D5" t="s">
-        <v>623</v>
-      </c>
-      <c r="F5" t="s">
-        <v>624</v>
-      </c>
       <c r="G5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -7527,108 +7527,108 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" t="s">
         <v>498</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>499</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>500</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>501</v>
       </c>
-      <c r="E2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2" t="s">
-        <v>503</v>
-      </c>
       <c r="G2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" t="s">
         <v>614</v>
       </c>
-      <c r="B4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C4" t="s">
-        <v>616</v>
-      </c>
       <c r="D4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" t="s">
         <v>501</v>
       </c>
-      <c r="E4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F4" t="s">
-        <v>503</v>
-      </c>
       <c r="G4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" t="s">
         <v>618</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>619</v>
       </c>
-      <c r="C5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D5" t="s">
-        <v>621</v>
-      </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C49007-4F49-D641-8FC8-607979EFD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3B392-C978-D34B-BECE-D117B8B2748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="11" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="6" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="754">
   <si>
     <t>Screening</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>15 min</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>studyTitle</t>
@@ -2547,10 +2544,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2892,183 +2889,183 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>459</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" t="s">
         <v>460</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>461</v>
       </c>
-      <c r="D17" t="s">
-        <v>462</v>
-      </c>
       <c r="E17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F17" s="23">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" t="s">
         <v>464</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>465</v>
       </c>
-      <c r="D18" t="s">
-        <v>466</v>
-      </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F18" s="23">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3081,11 +3078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3099,80 +3096,80 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3181,83 +3178,83 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3266,7 +3263,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3284,33 +3281,33 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3321,18 +3318,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3345,14 +3340,12 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3373,14 +3366,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3395,10 +3386,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3429,196 +3420,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>556</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" t="s">
         <v>558</v>
-      </c>
-      <c r="B2" t="s">
-        <v>559</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2" t="s">
         <v>560</v>
       </c>
-      <c r="E2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>561</v>
-      </c>
-      <c r="H2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" t="s">
         <v>563</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>564</v>
       </c>
-      <c r="C3" t="s">
-        <v>565</v>
-      </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F3" t="s">
         <v>537</v>
-      </c>
-      <c r="F3" t="s">
-        <v>538</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" t="s">
         <v>567</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" t="s">
         <v>568</v>
       </c>
-      <c r="C4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G4" t="s">
         <v>569</v>
-      </c>
-      <c r="E4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" t="s">
         <v>571</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" t="s">
         <v>572</v>
       </c>
-      <c r="C5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G5" t="s">
         <v>573</v>
       </c>
-      <c r="E5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="H5" t="s">
-        <v>562</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" t="s">
         <v>586</v>
       </c>
-      <c r="C6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D6" t="s">
-        <v>573</v>
-      </c>
-      <c r="E6" t="s">
-        <v>580</v>
-      </c>
-      <c r="F6" t="s">
-        <v>538</v>
-      </c>
-      <c r="G6" t="s">
-        <v>587</v>
-      </c>
       <c r="H6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" t="s">
-        <v>573</v>
-      </c>
-      <c r="E7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G7" t="s">
-        <v>588</v>
-      </c>
-      <c r="H7" t="s">
-        <v>562</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3645,80 +3636,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>731</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>739</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -3745,13 +3736,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3767,35 +3758,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
         <v>596</v>
       </c>
-      <c r="B3" t="s">
-        <v>597</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" t="s">
         <v>594</v>
-      </c>
-      <c r="C5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3826,53 +3817,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3914,179 +3905,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="N1" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>666</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>672</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C2" t="s">
         <v>674</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>675</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="G2" t="s">
         <v>676</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>750</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>677</v>
       </c>
-      <c r="H2" t="s">
-        <v>751</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>678</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>679</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>680</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>686</v>
+      </c>
+      <c r="N2" t="s">
         <v>681</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>687</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>682</v>
       </c>
-      <c r="O2" t="s">
-        <v>688</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" t="s">
         <v>683</v>
       </c>
-      <c r="Q2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="32" t="s">
         <v>684</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" t="s">
         <v>690</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="G3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I3" t="s">
+        <v>677</v>
+      </c>
+      <c r="J3" t="s">
         <v>691</v>
       </c>
-      <c r="D3" t="s">
-        <v>676</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="G3" t="s">
-        <v>677</v>
-      </c>
-      <c r="H3" t="s">
-        <v>752</v>
-      </c>
-      <c r="I3" t="s">
-        <v>678</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>692</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>693</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>686</v>
+      </c>
+      <c r="N3" t="s">
+        <v>681</v>
+      </c>
+      <c r="O3" t="s">
+        <v>687</v>
+      </c>
+      <c r="P3" t="s">
         <v>694</v>
       </c>
-      <c r="M3" t="s">
-        <v>687</v>
-      </c>
-      <c r="N3" t="s">
-        <v>682</v>
-      </c>
-      <c r="O3" t="s">
-        <v>688</v>
-      </c>
-      <c r="P3" t="s">
-        <v>695</v>
-      </c>
       <c r="Q3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R3" t="s">
+        <v>683</v>
+      </c>
+      <c r="S3" s="32" t="s">
         <v>684</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -4116,39 +4107,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>698</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4157,38 +4148,38 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B3" t="s">
         <v>700</v>
       </c>
-      <c r="B3" t="s">
-        <v>701</v>
-      </c>
       <c r="G3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4200,7 +4191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -4222,105 +4213,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="K1" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>610</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4331,18 +4322,18 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4660,54 +4651,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4719,7 +4710,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,33 +4722,33 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4785,53 +4776,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4865,22 +4856,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>475</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4889,17 +4880,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4908,17 +4899,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4927,19 +4918,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>483</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4948,17 +4939,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4989,175 +4980,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>530</v>
-      </c>
       <c r="G1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -5185,104 +5176,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5309,1239 +5300,1239 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6565,18 +6556,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6600,94 +6591,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>640</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>640</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -6729,113 +6720,113 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" t="s">
         <v>647</v>
       </c>
-      <c r="C5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D5" t="s">
-        <v>648</v>
-      </c>
       <c r="E5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6860,10 +6851,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -6871,10 +6862,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -6882,43 +6873,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+        <v>27</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -6926,10 +6917,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -6937,10 +6928,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -6948,10 +6939,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>703</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>704</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -6959,10 +6950,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -6970,10 +6961,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -6981,10 +6972,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -6992,7 +6983,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -7001,10 +6992,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -7013,41 +7004,41 @@
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7064,6 +7055,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7072,11 +7068,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7104,101 +7095,101 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>717</v>
-      </c>
       <c r="G1" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>714</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3">
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3"/>
       <c r="G3" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3">
         <v>234567891</v>
       </c>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -7227,62 +7218,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>527</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7311,30 +7302,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7342,13 +7333,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7356,27 +7347,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7404,102 +7395,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>491</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>504</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>505</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>506</v>
       </c>
-      <c r="F2" t="s">
-        <v>507</v>
-      </c>
       <c r="G2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" t="s">
         <v>508</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>509</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>510</v>
       </c>
-      <c r="F3" t="s">
-        <v>511</v>
-      </c>
       <c r="G3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" t="s">
         <v>606</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>607</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>608</v>
-      </c>
-      <c r="F4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D5" t="s">
         <v>620</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>621</v>
       </c>
-      <c r="F5" t="s">
-        <v>622</v>
-      </c>
       <c r="G5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -7527,108 +7518,108 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>494</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" t="s">
         <v>496</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>497</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>498</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>499</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>500</v>
       </c>
-      <c r="F2" t="s">
-        <v>501</v>
-      </c>
       <c r="G2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" t="s">
         <v>500</v>
       </c>
-      <c r="F3" t="s">
-        <v>501</v>
-      </c>
       <c r="G3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" t="s">
         <v>612</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>613</v>
       </c>
-      <c r="C4" t="s">
-        <v>614</v>
-      </c>
       <c r="D4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" t="s">
         <v>499</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>500</v>
       </c>
-      <c r="F4" t="s">
-        <v>501</v>
-      </c>
       <c r="G4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" t="s">
         <v>616</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>617</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>618</v>
       </c>
-      <c r="D5" t="s">
-        <v>619</v>
-      </c>
       <c r="E5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3B392-C978-D34B-BECE-D117B8B2748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AC8A0-1EA9-5A47-ADCC-23DC8AFF4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="6" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="6" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="757">
   <si>
     <t>Screening</t>
   </si>
@@ -2321,13 +2321,22 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2353,14 +2362,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2454,9 +2455,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2525,18 +2526,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2544,15 +2542,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3078,7 +3076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -3151,7 +3149,7 @@
       <c r="H2" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>580</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3180,7 +3178,7 @@
       <c r="G3" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>583</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -3253,7 +3251,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>582</v>
       </c>
       <c r="I6" s="2"/>
@@ -3978,7 +3976,7 @@
       <c r="E2" t="s">
         <v>749</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>688</v>
       </c>
       <c r="G2" t="s">
@@ -4017,7 +4015,7 @@
       <c r="R2" t="s">
         <v>683</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>684</v>
       </c>
     </row>
@@ -4037,7 +4035,7 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>688</v>
       </c>
       <c r="G3" t="s">
@@ -4076,7 +4074,7 @@
       <c r="R3" t="s">
         <v>683</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="31" t="s">
         <v>684</v>
       </c>
     </row>
@@ -4130,7 +4128,7 @@
       <c r="H1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>711</v>
       </c>
     </row>
@@ -4631,51 +4629,58 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="J1" s="18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>74</v>
       </c>
@@ -4686,46 +4691,58 @@
         <v>75</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
@@ -4736,19 +4753,25 @@
         <v>75</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>523</v>
+      </c>
+      <c r="J5" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -6590,94 +6613,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>635</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>638</v>
       </c>
     </row>
@@ -6853,34 +6876,34 @@
       <c r="A1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -6908,87 +6931,87 @@
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>703</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>704</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>705</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -7055,11 +7078,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7068,6 +7086,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AC8A0-1EA9-5A47-ADCC-23DC8AFF4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7619B58-3913-9343-9993-686FE237437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45680" yWindow="1720" windowWidth="44940" windowHeight="26040" firstSheet="6" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53880" yWindow="500" windowWidth="48020" windowHeight="27660" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="18" r:id="rId2"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignSites" sheetId="30" r:id="rId5"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId6"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId7"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId8"/>
-    <sheet name="dictionaries" sheetId="23" r:id="rId9"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
-    <sheet name="studyDesignTiming" sheetId="25" r:id="rId11"/>
-    <sheet name="studyDesignConditions" sheetId="31" r:id="rId12"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId13"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
-    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId15"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId22"/>
-    <sheet name="configuration" sheetId="10" r:id="rId23"/>
-    <sheet name="usefulInfo" sheetId="26" r:id="rId24"/>
+    <sheet name="studyOrganizations" sheetId="3" r:id="rId3"/>
+    <sheet name="studyIdentifiers" sheetId="32" r:id="rId4"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyDesignSites" sheetId="30" r:id="rId6"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId7"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId9"/>
+    <sheet name="dictionaries" sheetId="23" r:id="rId10"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId11"/>
+    <sheet name="studyDesignTiming" sheetId="25" r:id="rId12"/>
+    <sheet name="studyDesignConditions" sheetId="31" r:id="rId13"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId14"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
+    <sheet name="studyDesignInterventions" sheetId="27" r:id="rId16"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId17"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId18"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId19"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId20"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId21"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId22"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId23"/>
+    <sheet name="configuration" sheetId="10" r:id="rId24"/>
+    <sheet name="usefulInfo" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="757">
   <si>
     <t>Screening</t>
   </si>
@@ -100,18 +101,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>organisationIdentifierScheme</t>
-  </si>
-  <si>
-    <t>organisationIdentifier</t>
-  </si>
-  <si>
-    <t>organisationName</t>
-  </si>
-  <si>
-    <t>organisationType</t>
-  </si>
-  <si>
     <t>studyIdentifier</t>
   </si>
   <si>
@@ -172,9 +161,6 @@
     <t>AP1234</t>
   </si>
   <si>
-    <t>organisationAddress</t>
-  </si>
-  <si>
     <t>BC:Age, BC:Sex, BC:Race, BC:Body Weight</t>
   </si>
   <si>
@@ -2224,9 +2210,6 @@
     <t>Main Site</t>
   </si>
   <si>
-    <t>Site Org</t>
-  </si>
-  <si>
     <t>SITE_2</t>
   </si>
   <si>
@@ -2239,9 +2222,6 @@
     <t>SITE_ORG_2</t>
   </si>
   <si>
-    <t>Clinical Trials Org</t>
-  </si>
-  <si>
     <t>SITE_3</t>
   </si>
   <si>
@@ -2330,13 +2310,34 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Sites UK</t>
+  </si>
+  <si>
+    <t>Sites France</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>FRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2395,6 +2396,13 @@
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2457,7 +2465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2542,10 +2550,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2553,6 +2561,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2887,10 +2899,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2898,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2914,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2922,68 +2934,68 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -2991,79 +3003,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" t="s">
         <v>461</v>
-      </c>
-      <c r="C17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D17" t="s">
-        <v>461</v>
-      </c>
-      <c r="E17" t="s">
-        <v>466</v>
       </c>
       <c r="F17" s="23">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F18" s="23">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -3073,6 +3085,135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3094,80 +3235,80 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3176,83 +3317,83 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="26" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3261,7 +3402,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3279,33 +3420,33 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3316,7 +3457,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3325,7 +3466,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3340,10 +3481,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3366,10 +3507,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3384,10 +3525,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3399,7 +3540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0B1F19-81B2-DE4D-B058-6D33A4EF2886}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -3418,196 +3559,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E6" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F6" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="E7" t="s">
-        <v>540</v>
-      </c>
-      <c r="F7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G7" t="s">
-        <v>587</v>
-      </c>
-      <c r="H7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -3615,7 +3756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B66E51-0DD3-3746-8869-93EFDF6EEF7D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3634,80 +3775,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>740</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3734,13 +3875,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3756,35 +3897,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C5" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3797,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3815,53 +3956,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86117B3B-3975-3B4E-8ED4-B6979F031A31}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3903,179 +4044,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="P1" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>667</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="G2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H2" t="s">
+        <v>743</v>
+      </c>
+      <c r="I2" t="s">
+        <v>672</v>
+      </c>
+      <c r="J2" t="s">
         <v>673</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>674</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>675</v>
       </c>
-      <c r="E2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>681</v>
+      </c>
+      <c r="N2" t="s">
         <v>676</v>
       </c>
-      <c r="H2" t="s">
-        <v>750</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
+        <v>682</v>
+      </c>
+      <c r="P2" t="s">
         <v>677</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" t="s">
         <v>678</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" s="31" t="s">
         <v>679</v>
-      </c>
-      <c r="L2" t="s">
-        <v>680</v>
-      </c>
-      <c r="M2" t="s">
-        <v>686</v>
-      </c>
-      <c r="N2" t="s">
-        <v>681</v>
-      </c>
-      <c r="O2" t="s">
-        <v>687</v>
-      </c>
-      <c r="P2" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" t="s">
-        <v>683</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="G3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H3" t="s">
+        <v>744</v>
+      </c>
+      <c r="I3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J3" t="s">
+        <v>686</v>
+      </c>
+      <c r="K3" t="s">
+        <v>687</v>
+      </c>
+      <c r="L3" t="s">
+        <v>688</v>
+      </c>
+      <c r="M3" t="s">
+        <v>681</v>
+      </c>
+      <c r="N3" t="s">
+        <v>676</v>
+      </c>
+      <c r="O3" t="s">
+        <v>682</v>
+      </c>
+      <c r="P3" t="s">
         <v>689</v>
       </c>
-      <c r="C3" t="s">
-        <v>690</v>
-      </c>
-      <c r="D3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="G3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H3" t="s">
-        <v>751</v>
-      </c>
-      <c r="I3" t="s">
-        <v>677</v>
-      </c>
-      <c r="J3" t="s">
-        <v>691</v>
-      </c>
-      <c r="K3" t="s">
-        <v>692</v>
-      </c>
-      <c r="L3" t="s">
-        <v>693</v>
-      </c>
-      <c r="M3" t="s">
-        <v>686</v>
-      </c>
-      <c r="N3" t="s">
-        <v>681</v>
-      </c>
-      <c r="O3" t="s">
-        <v>687</v>
-      </c>
-      <c r="P3" t="s">
-        <v>694</v>
-      </c>
       <c r="Q3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +4224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4105,39 +4246,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="33" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4146,38 +4287,38 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -4211,105 +4352,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>516</v>
-      </c>
       <c r="K1" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4320,18 +4461,18 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4627,11 +4768,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4650,66 +4791,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4721,10 +4862,10 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4736,123 +4877,43 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>748</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4879,22 +4940,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4903,17 +4964,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4922,17 +4983,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4941,19 +5002,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>487</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4962,17 +5023,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4982,6 +5043,86 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -5003,175 +5144,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>589</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -5180,7 +5321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5199,104 +5340,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5305,7 +5446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -5323,28 +5464,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5353,1209 +5494,1209 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6564,7 +6705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6579,18 +6720,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6598,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CCACBD-9050-2546-A791-CCDEA21B15F7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -6614,94 +6755,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>623</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>624</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>632</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>633</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -6725,131 +6866,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>13</v>
+        <v>710</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>16</v>
+        <v>452</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>37</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>750</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E4" t="s">
         <v>642</v>
-      </c>
-      <c r="B4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D4" t="s">
-        <v>647</v>
-      </c>
-      <c r="E4" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C5" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E5" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C6" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>654</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="39">
+        <v>123456789</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="39">
+        <v>234567891</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -6858,6 +7039,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDE6331-503E-5740-BF81-D327AF389850}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -6874,10 +7122,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -6885,10 +7133,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -6896,43 +7144,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -6940,10 +7188,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -6951,10 +7199,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -6962,10 +7210,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -6973,10 +7221,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -6984,10 +7232,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -6995,10 +7243,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -7006,7 +7254,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -7015,10 +7263,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -7027,41 +7275,41 @@
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7078,6 +7326,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7086,133 +7339,93 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2E6C-EC56-2C43-9AA4-39E342213E19}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="17.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>707</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>457</v>
+        <v>708</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="C2" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="B3" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="F2" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F3"/>
-      <c r="G3" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3">
-        <v>234567891</v>
-      </c>
-      <c r="F4" t="s">
-        <v>602</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>729</v>
+      <c r="E4" s="3" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -7221,7 +7434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -7241,62 +7454,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7307,7 +7520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7325,30 +7538,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7356,13 +7569,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7370,27 +7583,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7398,7 +7611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -7418,231 +7631,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>507</v>
-      </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B4" t="s">
-        <v>612</v>
-      </c>
-      <c r="C4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" t="s">
-        <v>500</v>
-      </c>
-      <c r="G4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B5" t="s">
-        <v>616</v>
-      </c>
-      <c r="C5" t="s">
-        <v>617</v>
-      </c>
-      <c r="D5" t="s">
-        <v>618</v>
-      </c>
-      <c r="E5" t="s">
-        <v>545</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>457</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7619B58-3913-9343-9993-686FE237437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEF0CF-4B17-F845-8A14-37630398CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53880" yWindow="500" windowWidth="48020" windowHeight="27660" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51800" yWindow="500" windowWidth="48020" windowHeight="27660" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="758">
   <si>
     <t>Screening</t>
   </si>
@@ -146,9 +146,6 @@
     <t>interventionModel</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -2331,6 +2328,12 @@
   </si>
   <si>
     <t>FRA</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2546,14 +2549,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2561,10 +2562,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2883,7 +2880,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,10 +2896,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2926,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2934,68 +2931,68 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -3003,79 +3000,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>453</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" t="s">
         <v>454</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>455</v>
       </c>
-      <c r="D17" t="s">
-        <v>456</v>
-      </c>
       <c r="E17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F17" s="23">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" t="s">
         <v>458</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>459</v>
       </c>
-      <c r="D18" t="s">
-        <v>460</v>
-      </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F18" s="23">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3104,108 +3101,108 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>488</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" t="s">
         <v>490</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>491</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>492</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>493</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>494</v>
       </c>
-      <c r="F2" t="s">
-        <v>495</v>
-      </c>
       <c r="G2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" t="s">
         <v>494</v>
       </c>
-      <c r="F3" t="s">
-        <v>495</v>
-      </c>
       <c r="G3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" t="s">
         <v>606</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>607</v>
       </c>
-      <c r="C4" t="s">
-        <v>608</v>
-      </c>
       <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
         <v>493</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>494</v>
       </c>
-      <c r="F4" t="s">
-        <v>495</v>
-      </c>
       <c r="G4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" t="s">
         <v>610</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>611</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>612</v>
       </c>
-      <c r="D5" t="s">
-        <v>613</v>
-      </c>
       <c r="E5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3235,80 +3232,80 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3317,83 +3314,83 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3402,7 +3399,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3427,26 +3424,26 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3457,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3466,7 +3463,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3481,10 +3478,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3507,10 +3504,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3525,10 +3522,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>585</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3559,196 +3556,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>550</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" t="s">
         <v>552</v>
-      </c>
-      <c r="B2" t="s">
-        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" t="s">
         <v>554</v>
       </c>
-      <c r="E2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>555</v>
-      </c>
-      <c r="H2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" t="s">
         <v>557</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>558</v>
       </c>
-      <c r="C3" t="s">
-        <v>559</v>
-      </c>
       <c r="D3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" t="s">
         <v>531</v>
-      </c>
-      <c r="F3" t="s">
-        <v>532</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" t="s">
         <v>561</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" t="s">
         <v>562</v>
       </c>
-      <c r="C4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G4" t="s">
         <v>563</v>
-      </c>
-      <c r="E4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" t="s">
         <v>565</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" t="s">
         <v>566</v>
       </c>
-      <c r="C5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" t="s">
         <v>567</v>
       </c>
-      <c r="E5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F5" t="s">
-        <v>532</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="H5" t="s">
-        <v>556</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" t="s">
+        <v>531</v>
+      </c>
+      <c r="G6" t="s">
         <v>580</v>
       </c>
-      <c r="C6" t="s">
-        <v>573</v>
-      </c>
-      <c r="D6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" t="s">
-        <v>574</v>
-      </c>
-      <c r="F6" t="s">
-        <v>532</v>
-      </c>
-      <c r="G6" t="s">
-        <v>581</v>
-      </c>
       <c r="H6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H7" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" t="s">
-        <v>535</v>
-      </c>
-      <c r="F7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H7" t="s">
-        <v>556</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3775,80 +3772,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>723</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>731</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -3875,13 +3872,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3889,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3897,35 +3894,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" t="s">
         <v>590</v>
       </c>
-      <c r="B3" t="s">
-        <v>591</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" t="s">
         <v>588</v>
-      </c>
-      <c r="C5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3956,53 +3953,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4044,179 +4041,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="N1" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>666</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" t="s">
         <v>668</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>669</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="G2" t="s">
         <v>670</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>742</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>671</v>
       </c>
-      <c r="H2" t="s">
-        <v>743</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>672</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>673</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>674</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>680</v>
+      </c>
+      <c r="N2" t="s">
         <v>675</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>681</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>676</v>
       </c>
-      <c r="O2" t="s">
-        <v>682</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" t="s">
         <v>677</v>
       </c>
-      <c r="Q2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="31" t="s">
         <v>678</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C3" t="s">
         <v>684</v>
       </c>
-      <c r="C3" t="s">
-        <v>685</v>
-      </c>
       <c r="D3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I3" t="s">
         <v>671</v>
       </c>
-      <c r="H3" t="s">
-        <v>744</v>
-      </c>
-      <c r="I3" t="s">
-        <v>672</v>
-      </c>
       <c r="J3" t="s">
+        <v>685</v>
+      </c>
+      <c r="K3" t="s">
         <v>686</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>687</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>680</v>
+      </c>
+      <c r="N3" t="s">
+        <v>675</v>
+      </c>
+      <c r="O3" t="s">
+        <v>681</v>
+      </c>
+      <c r="P3" t="s">
         <v>688</v>
       </c>
-      <c r="M3" t="s">
-        <v>681</v>
-      </c>
-      <c r="N3" t="s">
-        <v>676</v>
-      </c>
-      <c r="O3" t="s">
-        <v>682</v>
-      </c>
-      <c r="P3" t="s">
-        <v>689</v>
-      </c>
       <c r="Q3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R3" t="s">
+        <v>677</v>
+      </c>
+      <c r="S3" s="31" t="s">
         <v>678</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -4246,39 +4243,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>692</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4287,38 +4284,38 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B3" t="s">
         <v>694</v>
       </c>
-      <c r="B3" t="s">
-        <v>695</v>
-      </c>
       <c r="G3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4352,105 +4349,105 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="K1" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>604</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4461,18 +4458,18 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4791,66 +4788,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="J1" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="J2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4862,10 +4859,10 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4877,42 +4874,42 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -4940,22 +4937,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>469</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4964,17 +4961,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4983,17 +4980,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5002,19 +4999,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>477</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5023,17 +5020,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5062,53 +5059,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5144,175 +5141,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>524</v>
-      </c>
       <c r="G1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -5340,104 +5337,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5464,28 +5461,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5494,1209 +5491,1209 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>450</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -6720,18 +6717,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6755,94 +6752,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>634</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>634</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6884,22 +6881,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>710</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6916,121 +6913,121 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E5" t="s">
         <v>641</v>
-      </c>
-      <c r="C5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D5" t="s">
-        <v>644</v>
-      </c>
-      <c r="E5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="39">
+      <c r="A7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="34">
         <v>123456789</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>712</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="34">
+        <v>234567891</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>752</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="40" t="s">
+      <c r="E8" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="39">
-        <v>234567891</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -7057,7 +7054,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7070,34 +7067,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -7107,10 +7104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7122,32 +7119,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+        <v>169</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -7157,180 +7154,209 @@
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+        <v>757</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>697</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>698</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>699</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+        <v>696</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="B11" s="34" t="s">
         <v>700</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="D19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
+  <mergeCells count="16">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B8:E8"/>
@@ -7339,6 +7365,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7349,7 +7380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E2E6C-EC56-2C43-9AA4-39E342213E19}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7362,70 +7393,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>709</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>722</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -7454,22 +7485,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>521</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7477,19 +7508,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7503,13 +7534,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7538,16 +7569,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7555,13 +7586,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7569,13 +7600,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7583,13 +7614,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7597,13 +7628,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7631,102 +7662,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>485</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>498</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>499</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>500</v>
       </c>
-      <c r="F2" t="s">
-        <v>501</v>
-      </c>
       <c r="G2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
         <v>502</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>504</v>
       </c>
-      <c r="F3" t="s">
-        <v>505</v>
-      </c>
       <c r="G3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>601</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>602</v>
-      </c>
-      <c r="F4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" t="s">
         <v>614</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>615</v>
       </c>
-      <c r="F5" t="s">
-        <v>616</v>
-      </c>
       <c r="G5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEF0CF-4B17-F845-8A14-37630398CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97432CDA-4555-8A43-BAA2-F4F4A31BB0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51800" yWindow="500" windowWidth="48020" windowHeight="27660" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="48020" windowHeight="27260" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2880,7 +2880,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B6"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7104,10 +7104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7117,7 +7117,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>168</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>169</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
@@ -7172,7 +7172,7 @@
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>757</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>696</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>696</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>700</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>107</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>108</v>
       </c>
@@ -7258,29 +7258,31 @@
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>756</v>
       </c>
@@ -7354,22 +7356,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97432CDA-4555-8A43-BAA2-F4F4A31BB0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E972E-56D6-8540-A7F2-802B8C0919B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="48020" windowHeight="27260" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52420" yWindow="500" windowWidth="48020" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="762">
   <si>
     <t>Screening</t>
   </si>
@@ -2334,6 +2334,18 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
   </si>
 </sst>
 </file>
@@ -4919,122 +4931,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7106,7 +7142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -7356,6 +7392,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -7367,11 +7408,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E972E-56D6-8540-A7F2-802B8C0919B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E8106-B2F4-7B47-8D73-B4CD05B08AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52420" yWindow="500" windowWidth="48020" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="10" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2294,12 +2294,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>intercurrentEventText</t>
   </si>
   <si>
@@ -2346,6 +2340,12 @@
   </si>
   <si>
     <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -4339,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4412,7 +4412,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
@@ -4442,7 +4442,7 @@
         <v>608</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>605</v>
@@ -4809,7 +4809,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>65</v>
@@ -4827,7 +4827,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -4859,7 +4859,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4921,7 +4921,7 @@
         <v>517</v>
       </c>
       <c r="J5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -4933,7 +4933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -6963,7 +6963,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -7037,7 +7037,7 @@
         <v>711</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>104</v>
@@ -7057,7 +7057,7 @@
         <v>718</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>104</v>
@@ -7090,7 +7090,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7106,7 +7106,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7221,7 +7221,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>95</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7392,11 +7392,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -7408,6 +7403,11 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7440,10 +7440,10 @@
         <v>708</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
         <v>711</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7477,7 +7477,7 @@
         <v>711</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7494,7 +7494,7 @@
         <v>718</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/encounter_1.xlsx
+++ b/tests/integration_test_files/encounter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E8106-B2F4-7B47-8D73-B4CD05B08AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA3843-1F5A-DB4F-9554-84A7CBA461CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="10" activeTab="17" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -374,12 +374,6 @@
     <t>IC Event Description Number 2</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2346,6 +2340,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2908,10 +2908,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,71 +3020,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>455</v>
-      </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F17" s="23">
         <v>44911</v>
       </c>
       <c r="G17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" t="s">
+        <v>457</v>
+      </c>
+      <c r="E18" t="s">
         <v>459</v>
-      </c>
-      <c r="C18" t="s">
-        <v>458</v>
-      </c>
-      <c r="D18" t="s">
-        <v>459</v>
-      </c>
-      <c r="E18" t="s">
-        <v>461</v>
       </c>
       <c r="F18" s="23">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -3113,108 +3113,108 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" t="s">
         <v>489</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>490</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>491</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>492</v>
       </c>
-      <c r="E2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F2" t="s">
-        <v>494</v>
-      </c>
       <c r="G2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" t="s">
         <v>605</v>
       </c>
-      <c r="B4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C4" t="s">
-        <v>607</v>
-      </c>
       <c r="D4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" t="s">
         <v>492</v>
       </c>
-      <c r="E4" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" t="s">
-        <v>494</v>
-      </c>
       <c r="G4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" t="s">
         <v>609</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>610</v>
       </c>
-      <c r="C5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D5" t="s">
-        <v>612</v>
-      </c>
       <c r="E5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3244,42 +3244,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>36</v>
@@ -3288,36 +3288,36 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3326,16 +3326,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3344,65 +3344,65 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3411,7 +3411,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3436,26 +3436,26 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3490,10 +3490,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -3516,10 +3516,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>2</v>
@@ -3568,196 +3568,196 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>548</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" t="s">
         <v>553</v>
-      </c>
-      <c r="E2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" t="s">
         <v>556</v>
       </c>
-      <c r="B3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" t="s">
-        <v>558</v>
-      </c>
       <c r="D3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" t="s">
         <v>560</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G4" t="s">
         <v>561</v>
-      </c>
-      <c r="C4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E4" t="s">
-        <v>531</v>
-      </c>
-      <c r="F4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" t="s">
         <v>564</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" t="s">
         <v>565</v>
       </c>
-      <c r="C5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="E5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G5" t="s">
-        <v>567</v>
-      </c>
-      <c r="H5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="E6" t="s">
-        <v>573</v>
-      </c>
-      <c r="F6" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" t="s">
-        <v>580</v>
-      </c>
-      <c r="H6" t="s">
-        <v>555</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3784,80 +3784,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -3884,13 +3884,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3898,7 +3898,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3906,35 +3906,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" t="s">
         <v>585</v>
       </c>
-      <c r="B5" t="s">
-        <v>587</v>
-      </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3965,16 +3965,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>37</v>
@@ -3985,13 +3985,13 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>38</v>
@@ -4002,13 +4002,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>39</v>
@@ -4053,61 +4053,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="O1" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4115,58 +4115,58 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" t="s">
         <v>667</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="G2" t="s">
         <v>668</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>740</v>
+      </c>
+      <c r="I2" t="s">
         <v>669</v>
       </c>
-      <c r="E2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>670</v>
       </c>
-      <c r="H2" t="s">
-        <v>742</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>671</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>672</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>678</v>
+      </c>
+      <c r="N2" t="s">
         <v>673</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>679</v>
+      </c>
+      <c r="P2" t="s">
         <v>674</v>
       </c>
-      <c r="M2" t="s">
-        <v>680</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
         <v>675</v>
       </c>
-      <c r="O2" t="s">
-        <v>681</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="S2" s="31" t="s">
         <v>676</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" t="s">
-        <v>677</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4174,58 +4174,58 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J3" t="s">
+        <v>683</v>
+      </c>
+      <c r="K3" t="s">
+        <v>684</v>
+      </c>
+      <c r="L3" t="s">
         <v>685</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>678</v>
+      </c>
+      <c r="N3" t="s">
+        <v>673</v>
+      </c>
+      <c r="O3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P3" t="s">
         <v>686</v>
       </c>
-      <c r="L3" t="s">
-        <v>687</v>
-      </c>
-      <c r="M3" t="s">
-        <v>680</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
         <v>675</v>
       </c>
-      <c r="O3" t="s">
-        <v>681</v>
-      </c>
-      <c r="P3" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>677</v>
-      </c>
       <c r="S3" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -4255,39 +4255,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4299,35 +4299,35 @@
         <v>42</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" t="s">
         <v>693</v>
       </c>
-      <c r="B4" t="s">
-        <v>695</v>
-      </c>
       <c r="G4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4361,43 +4361,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>46</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -4405,21 +4405,21 @@
         <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
@@ -4435,23 +4435,23 @@
         <v>60</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -4473,7 +4473,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -4800,7 +4800,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>64</v>
@@ -4809,7 +4809,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>65</v>
@@ -4827,7 +4827,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>70</v>
@@ -4859,7 +4859,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4903,10 +4903,10 @@
         <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>103</v>
@@ -4918,10 +4918,10 @@
         <v>62</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -4949,37 +4949,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>468</v>
-      </c>
       <c r="I1" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4987,85 +4987,85 @@
         <v>4</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>472</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>476</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -5095,53 +5095,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" t="s">
         <v>525</v>
       </c>
-      <c r="D3" t="s">
-        <v>527</v>
-      </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5177,175 +5177,175 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="I2" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -5373,104 +5373,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5497,28 +5497,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5527,1209 +5527,1209 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6788,94 +6788,94 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -6901,8 +6901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6917,22 +6917,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6949,10 +6949,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>761</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6963,67 +6963,67 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>760</v>
       </c>
       <c r="F3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E4" t="s">
         <v>639</v>
-      </c>
-      <c r="C4" t="s">
-        <v>636</v>
-      </c>
-      <c r="D4" t="s">
-        <v>642</v>
-      </c>
-      <c r="E4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7034,16 +7034,16 @@
         <v>123456789</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>104</v>
+        <v>760</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7054,16 +7054,16 @@
         <v>234567891</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>104</v>
+        <v>760</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -7090,7 +7090,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7106,31 +7106,31 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -7155,10 +7155,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -7180,7 +7180,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -7191,7 +7191,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>95</v>
@@ -7243,10 +7243,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -7254,10 +7254,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>696</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>698</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -7265,10 +7265,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -7276,10 +7276,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>21</v>
@@ -7349,16 +7349,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -7366,16 +7366,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -7392,6 +7392,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -7403,11 +7408,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7431,70 +7431,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>707</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>708</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>721</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -7523,22 +7523,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7546,19 +7546,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7572,13 +7572,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7607,13 +7607,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>35</v>
@@ -7624,13 +7624,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7638,13 +7638,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7652,13 +7652,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7666,13 +7666,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7700,102 +7700,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
         <v>497</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>498</v>
       </c>
-      <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" t="s">
-        <v>500</v>
-      </c>
       <c r="G2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
         <v>501</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>502</v>
       </c>
-      <c r="D3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F3" t="s">
-        <v>504</v>
-      </c>
       <c r="G3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D4" t="s">
         <v>599</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>600</v>
-      </c>
-      <c r="D4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" t="s">
         <v>613</v>
       </c>
-      <c r="D5" t="s">
-        <v>614</v>
-      </c>
-      <c r="F5" t="s">
-        <v>615</v>
-      </c>
       <c r="G5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
